--- a/demo/deposit/test_data/deposit_cp.xlsx
+++ b/demo/deposit/test_data/deposit_cp.xlsx
@@ -1046,12 +1046,12 @@
       </c>
       <c r="F2" s="7" t="inlineStr">
         <is>
-          <t>67,879.00</t>
+          <t>14,226.35</t>
         </is>
       </c>
       <c r="G2" s="7" t="inlineStr">
         <is>
-          <t>67,928.50</t>
+          <t>14,226.35</t>
         </is>
       </c>
     </row>
@@ -1079,7 +1079,7 @@
       </c>
       <c r="F3" s="7" t="inlineStr">
         <is>
-          <t>618.73</t>
+          <t>734.13</t>
         </is>
       </c>
       <c r="G3" s="7" t="inlineStr">

--- a/demo/deposit/test_data/deposit_cp.xlsx
+++ b/demo/deposit/test_data/deposit_cp.xlsx
@@ -37,8 +37,75 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color theme="0"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
       <b val="1"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF9C0006"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF3F3F76"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <i val="1"/>
+      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FFFA7D00"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -53,67 +120,24 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
+      <color rgb="FFFF0000"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
       <b val="1"/>
-      <color rgb="FFFA7D00"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <i val="1"/>
-      <color rgb="FF7F7F7F"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <color theme="3"/>
+      <sz val="18"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
       <b val="1"/>
-      <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FFFF0000"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF3F3F76"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color theme="0"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF9C0006"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF9C6500"/>
-      <sz val="11"/>
+      <color theme="3"/>
+      <sz val="15"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -126,40 +150,9 @@
     </font>
     <font>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <b val="1"/>
-      <color theme="3"/>
-      <sz val="15"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF800080"/>
-      <sz val="11"/>
-      <u val="single"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FF3F3F3F"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="18"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -167,6 +160,13 @@
       <name val="宋体"/>
       <charset val="0"/>
       <color rgb="FF006100"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF9C6500"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -180,61 +180,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -246,121 +342,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -371,80 +371,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -465,12 +391,86 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
@@ -479,10 +479,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="3" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="3" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyAlignment="1">
@@ -491,16 +491,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1">
@@ -509,119 +509,119 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="7" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="3" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="8" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -637,17 +637,11 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -971,7 +965,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A1" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="E16" sqref="E16"/>
+      <selection pane="bottomLeft" activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1036,22 +1030,20 @@
           <t>Tl123456</t>
         </is>
       </c>
-      <c r="D2" s="6" t="inlineStr">
-        <is>
-          <t>672005306</t>
-        </is>
-      </c>
-      <c r="E2" s="7" t="n">
+      <c r="D2" s="5" t="n">
+        <v>652002924</v>
+      </c>
+      <c r="E2" s="6" t="n">
         <v>55</v>
       </c>
-      <c r="F2" s="7" t="inlineStr">
-        <is>
-          <t>14,226.35</t>
-        </is>
-      </c>
-      <c r="G2" s="7" t="inlineStr">
-        <is>
-          <t>14,226.35</t>
+      <c r="F2" s="6" t="inlineStr">
+        <is>
+          <t>449.24</t>
+        </is>
+      </c>
+      <c r="G2" s="6" t="inlineStr">
+        <is>
+          <t>503.69</t>
         </is>
       </c>
     </row>
@@ -1069,179 +1061,203 @@
           <t>Tl123456</t>
         </is>
       </c>
-      <c r="D3" s="6" t="inlineStr">
-        <is>
-          <t>672005305</t>
-        </is>
-      </c>
-      <c r="E3" s="7" t="n">
+      <c r="D3" s="5" t="n">
+        <v>612000080</v>
+      </c>
+      <c r="E3" s="6" t="n">
         <v>66</v>
       </c>
-      <c r="F3" s="7" t="inlineStr">
-        <is>
-          <t>734.13</t>
-        </is>
-      </c>
-      <c r="G3" s="7" t="inlineStr">
-        <is>
-          <t>678.13</t>
+      <c r="F3" s="6" t="inlineStr">
+        <is>
+          <t>275.00</t>
+        </is>
+      </c>
+      <c r="G3" s="6" t="inlineStr">
+        <is>
+          <t>275.00</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="D4" s="8" t="n"/>
-      <c r="E4" s="8" t="n"/>
-      <c r="F4" s="8" t="n"/>
-      <c r="G4" s="8" t="n"/>
+      <c r="A4" s="1" t="n">
+        <v>1000005349</v>
+      </c>
+      <c r="B4" s="2" t="inlineStr">
+        <is>
+          <t>tyler.tang@test.com</t>
+        </is>
+      </c>
+      <c r="C4" s="1" t="inlineStr">
+        <is>
+          <t>Tl123456</t>
+        </is>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>612000081</v>
+      </c>
+      <c r="E4" s="6" t="n">
+        <v>66</v>
+      </c>
+      <c r="F4" s="6" t="inlineStr">
+        <is>
+          <t>120.34</t>
+        </is>
+      </c>
+      <c r="G4" s="6" t="inlineStr">
+        <is>
+          <t>185.68</t>
+        </is>
+      </c>
     </row>
     <row r="5">
-      <c r="D5" s="8" t="n"/>
-      <c r="E5" s="8" t="n"/>
-      <c r="F5" s="8" t="n"/>
-      <c r="G5" s="8" t="n"/>
+      <c r="D5" s="5" t="n"/>
+      <c r="E5" s="5" t="n"/>
+      <c r="F5" s="5" t="n"/>
+      <c r="G5" s="5" t="n"/>
     </row>
     <row r="6">
-      <c r="D6" s="8" t="n"/>
-      <c r="E6" s="8" t="n"/>
-      <c r="F6" s="8" t="n"/>
-      <c r="G6" s="8" t="n"/>
+      <c r="D6" s="5" t="n"/>
+      <c r="E6" s="5" t="n"/>
+      <c r="F6" s="5" t="n"/>
+      <c r="G6" s="5" t="n"/>
     </row>
     <row r="7">
-      <c r="D7" s="8" t="n"/>
-      <c r="E7" s="8" t="n"/>
-      <c r="F7" s="8" t="n"/>
-      <c r="G7" s="8" t="n"/>
+      <c r="D7" s="5" t="n"/>
+      <c r="E7" s="5" t="n"/>
+      <c r="F7" s="5" t="n"/>
+      <c r="G7" s="5" t="n"/>
     </row>
     <row r="8">
-      <c r="D8" s="8" t="n"/>
-      <c r="E8" s="8" t="n"/>
-      <c r="F8" s="8" t="n"/>
-      <c r="G8" s="8" t="n"/>
+      <c r="D8" s="5" t="n"/>
+      <c r="E8" s="5" t="n"/>
+      <c r="F8" s="5" t="n"/>
+      <c r="G8" s="5" t="n"/>
     </row>
     <row r="9">
-      <c r="D9" s="8" t="n"/>
-      <c r="E9" s="8" t="n"/>
-      <c r="F9" s="8" t="n"/>
-      <c r="G9" s="8" t="n"/>
+      <c r="D9" s="5" t="n"/>
+      <c r="E9" s="5" t="n"/>
+      <c r="F9" s="5" t="n"/>
+      <c r="G9" s="5" t="n"/>
     </row>
     <row r="10">
-      <c r="D10" s="8" t="n"/>
-      <c r="E10" s="8" t="n"/>
-      <c r="F10" s="8" t="n"/>
-      <c r="G10" s="8" t="n"/>
+      <c r="D10" s="5" t="n"/>
+      <c r="E10" s="5" t="n"/>
+      <c r="F10" s="5" t="n"/>
+      <c r="G10" s="5" t="n"/>
     </row>
     <row r="11">
-      <c r="D11" s="8" t="n"/>
-      <c r="E11" s="8" t="n"/>
-      <c r="F11" s="8" t="n"/>
-      <c r="G11" s="8" t="n"/>
+      <c r="D11" s="5" t="n"/>
+      <c r="E11" s="5" t="n"/>
+      <c r="F11" s="5" t="n"/>
+      <c r="G11" s="5" t="n"/>
     </row>
     <row r="12">
-      <c r="D12" s="8" t="n"/>
-      <c r="E12" s="8" t="n"/>
-      <c r="F12" s="8" t="n"/>
-      <c r="G12" s="8" t="n"/>
+      <c r="D12" s="5" t="n"/>
+      <c r="E12" s="5" t="n"/>
+      <c r="F12" s="5" t="n"/>
+      <c r="G12" s="5" t="n"/>
     </row>
     <row r="13">
-      <c r="D13" s="8" t="n"/>
-      <c r="E13" s="8" t="n"/>
-      <c r="F13" s="8" t="n"/>
-      <c r="G13" s="8" t="n"/>
+      <c r="D13" s="5" t="n"/>
+      <c r="E13" s="5" t="n"/>
+      <c r="F13" s="5" t="n"/>
+      <c r="G13" s="5" t="n"/>
     </row>
     <row r="14">
-      <c r="D14" s="8" t="n"/>
-      <c r="E14" s="8" t="n"/>
-      <c r="F14" s="8" t="n"/>
-      <c r="G14" s="8" t="n"/>
+      <c r="D14" s="5" t="n"/>
+      <c r="E14" s="5" t="n"/>
+      <c r="F14" s="5" t="n"/>
+      <c r="G14" s="5" t="n"/>
     </row>
     <row r="15">
-      <c r="D15" s="8" t="n"/>
-      <c r="E15" s="8" t="n"/>
-      <c r="F15" s="8" t="n"/>
-      <c r="G15" s="8" t="n"/>
+      <c r="D15" s="5" t="n"/>
+      <c r="E15" s="5" t="n"/>
+      <c r="F15" s="5" t="n"/>
+      <c r="G15" s="5" t="n"/>
     </row>
     <row r="16">
-      <c r="D16" s="8" t="n"/>
-      <c r="E16" s="8" t="n"/>
-      <c r="F16" s="8" t="n"/>
-      <c r="G16" s="8" t="n"/>
+      <c r="D16" s="5" t="n"/>
+      <c r="E16" s="5" t="n"/>
+      <c r="F16" s="5" t="n"/>
+      <c r="G16" s="5" t="n"/>
     </row>
     <row r="17">
-      <c r="D17" s="8" t="n"/>
-      <c r="E17" s="8" t="n"/>
-      <c r="F17" s="8" t="n"/>
-      <c r="G17" s="8" t="n"/>
+      <c r="D17" s="5" t="n"/>
+      <c r="E17" s="5" t="n"/>
+      <c r="F17" s="5" t="n"/>
+      <c r="G17" s="5" t="n"/>
     </row>
     <row r="18">
-      <c r="D18" s="8" t="n"/>
-      <c r="E18" s="8" t="n"/>
-      <c r="F18" s="8" t="n"/>
-      <c r="G18" s="8" t="n"/>
+      <c r="D18" s="5" t="n"/>
+      <c r="E18" s="5" t="n"/>
+      <c r="F18" s="5" t="n"/>
+      <c r="G18" s="5" t="n"/>
     </row>
     <row r="19">
-      <c r="D19" s="8" t="n"/>
-      <c r="E19" s="8" t="n"/>
-      <c r="F19" s="8" t="n"/>
-      <c r="G19" s="8" t="n"/>
+      <c r="D19" s="5" t="n"/>
+      <c r="E19" s="5" t="n"/>
+      <c r="F19" s="5" t="n"/>
+      <c r="G19" s="5" t="n"/>
     </row>
     <row r="20">
-      <c r="D20" s="8" t="n"/>
-      <c r="E20" s="8" t="n"/>
-      <c r="F20" s="8" t="n"/>
-      <c r="G20" s="8" t="n"/>
+      <c r="D20" s="5" t="n"/>
+      <c r="E20" s="5" t="n"/>
+      <c r="F20" s="5" t="n"/>
+      <c r="G20" s="5" t="n"/>
     </row>
     <row r="21">
-      <c r="D21" s="8" t="n"/>
-      <c r="E21" s="8" t="n"/>
-      <c r="F21" s="8" t="n"/>
-      <c r="G21" s="8" t="n"/>
+      <c r="D21" s="5" t="n"/>
+      <c r="E21" s="5" t="n"/>
+      <c r="F21" s="5" t="n"/>
+      <c r="G21" s="5" t="n"/>
     </row>
     <row r="22">
-      <c r="D22" s="8" t="n"/>
-      <c r="E22" s="8" t="n"/>
-      <c r="F22" s="8" t="n"/>
-      <c r="G22" s="8" t="n"/>
+      <c r="D22" s="5" t="n"/>
+      <c r="E22" s="5" t="n"/>
+      <c r="F22" s="5" t="n"/>
+      <c r="G22" s="5" t="n"/>
     </row>
     <row r="23">
-      <c r="D23" s="8" t="n"/>
-      <c r="E23" s="8" t="n"/>
-      <c r="F23" s="8" t="n"/>
-      <c r="G23" s="8" t="n"/>
+      <c r="D23" s="5" t="n"/>
+      <c r="E23" s="5" t="n"/>
+      <c r="F23" s="5" t="n"/>
+      <c r="G23" s="5" t="n"/>
     </row>
     <row r="24">
-      <c r="D24" s="8" t="n"/>
-      <c r="E24" s="8" t="n"/>
-      <c r="F24" s="8" t="n"/>
-      <c r="G24" s="8" t="n"/>
+      <c r="D24" s="5" t="n"/>
+      <c r="E24" s="5" t="n"/>
+      <c r="F24" s="5" t="n"/>
+      <c r="G24" s="5" t="n"/>
     </row>
     <row r="25">
-      <c r="D25" s="8" t="n"/>
-      <c r="E25" s="8" t="n"/>
-      <c r="F25" s="8" t="n"/>
-      <c r="G25" s="8" t="n"/>
+      <c r="D25" s="5" t="n"/>
+      <c r="E25" s="5" t="n"/>
+      <c r="F25" s="5" t="n"/>
+      <c r="G25" s="5" t="n"/>
     </row>
     <row r="26">
-      <c r="D26" s="8" t="n"/>
-      <c r="E26" s="8" t="n"/>
-      <c r="F26" s="8" t="n"/>
-      <c r="G26" s="8" t="n"/>
+      <c r="D26" s="5" t="n"/>
+      <c r="E26" s="5" t="n"/>
+      <c r="F26" s="5" t="n"/>
+      <c r="G26" s="5" t="n"/>
     </row>
     <row r="27">
-      <c r="D27" s="8" t="n"/>
-      <c r="E27" s="8" t="n"/>
-      <c r="F27" s="8" t="n"/>
-      <c r="G27" s="8" t="n"/>
+      <c r="D27" s="5" t="n"/>
+      <c r="E27" s="5" t="n"/>
+      <c r="F27" s="5" t="n"/>
+      <c r="G27" s="5" t="n"/>
     </row>
     <row r="28">
-      <c r="D28" s="8" t="n"/>
-      <c r="E28" s="8" t="n"/>
-      <c r="F28" s="8" t="n"/>
-      <c r="G28" s="8" t="n"/>
+      <c r="D28" s="5" t="n"/>
+      <c r="E28" s="5" t="n"/>
+      <c r="F28" s="5" t="n"/>
+      <c r="G28" s="5" t="n"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" tooltip="mailto:tyler.tang@test.com" display="tyler.tang@test.com" r:id="rId1"/>
     <hyperlink ref="B3" tooltip="mailto:tyler.tang@test.com" display="tyler.tang@test.com" r:id="rId2"/>
+    <hyperlink ref="B4" tooltip="mailto:tyler.tang@test.com" display="tyler.tang@test.com" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/demo/deposit/test_data/deposit_cp.xlsx
+++ b/demo/deposit/test_data/deposit_cp.xlsx
@@ -1038,12 +1038,12 @@
       </c>
       <c r="F2" s="6" t="inlineStr">
         <is>
-          <t>449.24</t>
+          <t>612.59</t>
         </is>
       </c>
       <c r="G2" s="6" t="inlineStr">
         <is>
-          <t>503.69</t>
+          <t>667.04</t>
         </is>
       </c>
     </row>
@@ -1100,12 +1100,12 @@
       </c>
       <c r="F4" s="6" t="inlineStr">
         <is>
-          <t>120.34</t>
+          <t>251.02</t>
         </is>
       </c>
       <c r="G4" s="6" t="inlineStr">
         <is>
-          <t>185.68</t>
+          <t>316.36</t>
         </is>
       </c>
     </row>

--- a/demo/deposit/test_data/deposit_cp.xlsx
+++ b/demo/deposit/test_data/deposit_cp.xlsx
@@ -1038,12 +1038,12 @@
       </c>
       <c r="F2" s="6" t="inlineStr">
         <is>
-          <t>612.59</t>
+          <t>667.04</t>
         </is>
       </c>
       <c r="G2" s="6" t="inlineStr">
         <is>
-          <t>667.04</t>
+          <t>721.49</t>
         </is>
       </c>
     </row>
@@ -1100,12 +1100,12 @@
       </c>
       <c r="F4" s="6" t="inlineStr">
         <is>
-          <t>251.02</t>
+          <t>316.36</t>
         </is>
       </c>
       <c r="G4" s="6" t="inlineStr">
         <is>
-          <t>316.36</t>
+          <t>381.70</t>
         </is>
       </c>
     </row>
